--- a/waste_flow/extra_data_xls/waste_to_full_name.xlsx
+++ b/waste_flow/extra_data_xls/waste_to_full_name.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29720" yWindow="12820" windowWidth="21460" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="2440" yWindow="12500" windowWidth="32840" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,23 +143,23 @@
     <t>Food waste</t>
   </si>
   <si>
-    <t>W727375_hh</t>
-  </si>
-  <si>
-    <t>W999999_hh</t>
-  </si>
-  <si>
     <t>dry_fraction</t>
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>W7375_hh</t>
+  </si>
+  <si>
+    <t>W9999_hh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +181,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,19 +214,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,30 +518,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -525,7 +555,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -539,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -553,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -581,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -595,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -623,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -782,9 +812,9 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
@@ -796,9 +826,9 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">

--- a/waste_flow/extra_data_xls/waste_to_full_name.xlsx
+++ b/waste_flow/extra_data_xls/waste_to_full_name.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="12500" windowWidth="32840" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="1080" yWindow="13180" windowWidth="32840" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>Food waste</t>
   </si>
   <si>
-    <t>dry_fraction</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>W9999_hh</t>
+  </si>
+  <si>
+    <t>wet_fraction</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -555,7 +555,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -812,7 +812,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>

--- a/waste_flow/extra_data_xls/waste_to_full_name.xlsx
+++ b/waste_flow/extra_data_xls/waste_to_full_name.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="13180" windowWidth="32840" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,13 +146,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>W7375_hh</t>
-  </si>
-  <si>
     <t>W9999_hh</t>
   </si>
   <si>
     <t>wet_fraction</t>
+  </si>
+  <si>
+    <t>W7376_hh</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -812,7 +812,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>

--- a/waste_flow/extra_data_xls/waste_to_full_name.xlsx
+++ b/waste_flow/extra_data_xls/waste_to_full_name.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="17980" windowWidth="19400" windowHeight="12820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/waste_flow/extra_data_xls/waste_to_full_name.xlsx
+++ b/waste_flow/extra_data_xls/waste_to_full_name.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="17980" windowWidth="19400" windowHeight="12820" tabRatio="500"/>
+    <workbookView xWindow="27880" yWindow="460" windowWidth="23120" windowHeight="13580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D18">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">

--- a/waste_flow/extra_data_xls/waste_to_full_name.xlsx
+++ b/waste_flow/extra_data_xls/waste_to_full_name.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27880" yWindow="460" windowWidth="23120" windowHeight="13580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>W072</t>
   </si>
@@ -153,6 +153,33 @@
   </si>
   <si>
     <t>W7376_hh</t>
+  </si>
+  <si>
+    <t>plot_color</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
 </sst>
 </file>
@@ -516,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,7 +557,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -543,8 +570,11 @@
       <c r="D1" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -557,8 +587,11 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -571,8 +604,11 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -585,8 +621,11 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -599,8 +638,11 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -613,8 +655,11 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -627,8 +672,11 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -641,8 +689,11 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -655,8 +706,11 @@
       <c r="D9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -669,8 +723,11 @@
       <c r="D10">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -683,8 +740,11 @@
       <c r="D11">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -697,8 +757,11 @@
       <c r="D12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -711,8 +774,11 @@
       <c r="D13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -725,8 +791,11 @@
       <c r="D14">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -739,8 +808,11 @@
       <c r="D15">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -753,8 +825,11 @@
       <c r="D16">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -767,8 +842,11 @@
       <c r="D17">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -781,8 +859,11 @@
       <c r="D18">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -795,8 +876,11 @@
       <c r="D19">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -809,8 +893,11 @@
       <c r="D20">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -823,8 +910,11 @@
       <c r="D21">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -836,6 +926,9 @@
       </c>
       <c r="D22">
         <v>0.06</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
